--- a/otomatisasi/penerimaan_epus.xlsx
+++ b/otomatisasi/penerimaan_epus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="79">
   <si>
     <t>Tangal Penerimaan:</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Sumber:</t>
   </si>
   <si>
-    <t>STOK OP</t>
+    <t>SO</t>
   </si>
   <si>
     <t>Kode Obat</t>
@@ -190,39 +190,6 @@
     <t>30-11-2026</t>
   </si>
   <si>
-    <t>O210045</t>
-  </si>
-  <si>
-    <t>pirantel pamoat suspensi 125 mg/5 ml</t>
-  </si>
-  <si>
-    <t>Piroksikam tabletl 10 mg</t>
-  </si>
-  <si>
-    <t>Piroksikam tablet 20 mg</t>
-  </si>
-  <si>
-    <t>31-01-2024</t>
-  </si>
-  <si>
-    <t>Primakuin tablet 15 mg</t>
-  </si>
-  <si>
-    <t>31-03-2024</t>
-  </si>
-  <si>
-    <t>Salbutamol tablet 2 mg</t>
-  </si>
-  <si>
-    <t>Salbutamol tablet 4 mg</t>
-  </si>
-  <si>
-    <t>Simvastatin 20 mg tablet</t>
-  </si>
-  <si>
-    <t>31-12-2023</t>
-  </si>
-  <si>
     <t>Tripolidin Hcl 1.25mg, Pseudoefedrin Hcl 30mg/5ml @100 ml</t>
   </si>
   <si>
@@ -259,7 +226,7 @@
     <t>Handscoon (gloves) ukuran S</t>
   </si>
   <si>
-    <t>31-08-2026</t>
+    <t>31-08-2077</t>
   </si>
   <si>
     <t>Handscoon (gloves) ukuran M</t>
@@ -283,13 +250,7 @@
     <t>Rapid test sipilis</t>
   </si>
   <si>
-    <t>Pigiwiy Nigiri Sipilis</t>
-  </si>
-  <si>
-    <t>SENDNUDES</t>
-  </si>
-  <si>
-    <t>31-08-2028</t>
+    <t>31-08-2024</t>
   </si>
 </sst>
 </file>
@@ -299,9 +260,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -352,14 +313,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +359,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +389,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -403,22 +396,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -440,29 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -491,49 +452,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,115 +596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,6 +658,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -714,17 +695,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -732,20 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,17 +732,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,136 +745,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1267,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1287,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44788</v>
+        <v>44777</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2033,40 +1994,40 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="4">
+        <v>20309</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
-        <v>20263</v>
+        <v>20312</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>60</v>
@@ -2078,7 +2039,7 @@
         <v>2022</v>
       </c>
       <c r="E28" s="4">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>15</v>
@@ -2089,16 +2050,16 @@
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="4">
-        <v>213123131</v>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4">
-        <v>20264</v>
+        <v>21005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>61</v>
@@ -2121,8 +2082,8 @@
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="4">
-        <v>3242342342</v>
+      <c r="I29" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>62</v>
@@ -2130,7 +2091,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4">
-        <v>20268</v>
+        <v>21013</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>63</v>
@@ -2142,7 +2103,7 @@
         <v>2022</v>
       </c>
       <c r="E30" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>15</v>
@@ -2153,8 +2114,8 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="4">
-        <v>1231231</v>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>64</v>
@@ -2162,7 +2123,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4">
-        <v>20287</v>
+        <v>21015</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>65</v>
@@ -2174,7 +2135,7 @@
         <v>2022</v>
       </c>
       <c r="E31" s="4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>15</v>
@@ -2189,47 +2150,47 @@
         <v>15</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4">
-        <v>20288</v>
+        <v>21018</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E32" s="4">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E32" s="4">
-        <v>300</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4">
-        <v>20297</v>
+        <v>21017</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
@@ -2238,7 +2199,7 @@
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>15</v>
@@ -2253,12 +2214,12 @@
         <v>15</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4">
-        <v>20309</v>
+        <v>21030</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>69</v>
@@ -2270,7 +2231,7 @@
         <v>2022</v>
       </c>
       <c r="E34" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
@@ -2290,7 +2251,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4">
-        <v>20312</v>
+        <v>21029</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>71</v>
@@ -2302,7 +2263,7 @@
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>15</v>
@@ -2317,15 +2278,15 @@
         <v>15</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4">
-        <v>21005</v>
+        <v>21037</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>14</v>
@@ -2334,7 +2295,7 @@
         <v>2022</v>
       </c>
       <c r="E36" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>15</v>
@@ -2349,15 +2310,15 @@
         <v>15</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4">
-        <v>21013</v>
+        <v>21043</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
@@ -2366,7 +2327,7 @@
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>15</v>
@@ -2381,12 +2342,12 @@
         <v>15</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4">
-        <v>21015</v>
+        <v>21044</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>76</v>
@@ -2398,7 +2359,7 @@
         <v>2022</v>
       </c>
       <c r="E38" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>15</v>
@@ -2413,295 +2374,39 @@
         <v>15</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4">
-        <v>21018</v>
+        <v>23039</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2022</v>
+      </c>
+      <c r="E39" s="4">
+        <v>25</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="4">
-        <v>12</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="4">
-        <v>21017</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E40" s="4">
-        <v>12</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="4">
-        <v>21030</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E41" s="4">
-        <v>400</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="4">
-        <v>21029</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E42" s="4">
-        <v>400</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="4">
-        <v>21037</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E43" s="4">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="4">
-        <v>21043</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="4">
-        <v>21044</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="4">
-        <v>23039</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E46" s="4">
-        <v>25</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="4">
-        <v>23039</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E47" s="4">
-        <v>69</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/otomatisasi/penerimaan_epus.xlsx
+++ b/otomatisasi/penerimaan_epus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="386">
   <si>
     <t>Tangal Penerimaan:</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Tanggal Kadaluarsa</t>
   </si>
   <si>
-    <t>A C T ( Artesunat 50 mg + Amodiaquin 200 mg ) tablet</t>
+    <t>Alopurinol tablet 100 mg</t>
   </si>
   <si>
     <t>APBD</t>
@@ -64,82 +64,433 @@
     <t>-</t>
   </si>
   <si>
-    <t>192183712873</t>
+    <t>A01300</t>
+  </si>
+  <si>
+    <t>31-07-2023</t>
+  </si>
+  <si>
+    <t>Ambroksol tablet 30 mg</t>
+  </si>
+  <si>
+    <t>28-02-2023</t>
+  </si>
+  <si>
+    <t>Amitriptilin HCl tablet salut 25 mg</t>
+  </si>
+  <si>
+    <t>20AT1004</t>
+  </si>
+  <si>
+    <t>31-08-2024</t>
+  </si>
+  <si>
+    <t>Amlodipin 10 mg tablet</t>
+  </si>
+  <si>
+    <t>JG3451</t>
+  </si>
+  <si>
+    <t>31-01-2024</t>
+  </si>
+  <si>
+    <t>Amoksisilin kaplet 500 mg</t>
+  </si>
+  <si>
+    <t>30-09-2022</t>
+  </si>
+  <si>
+    <t>Amoksisilin sirup kering 125 mg / 5 ml</t>
+  </si>
+  <si>
+    <t>2008-12-96</t>
+  </si>
+  <si>
+    <t>31-08-2022</t>
+  </si>
+  <si>
+    <t>Antasida DOEN  I tablet  komb : Al(OH) 200 mg + Mg (OH) 200 mg</t>
+  </si>
+  <si>
+    <t>31-07-2024</t>
+  </si>
+  <si>
+    <t>Antasida DOEN II susp. 60 ml.komb.:Al(OH) 200 mg/5 ml.+Mg(OH) 200 mg/5 ml</t>
+  </si>
+  <si>
+    <t>J29110</t>
+  </si>
+  <si>
+    <t>31-10-2024</t>
+  </si>
+  <si>
+    <t>Anti Hemoroid DOEN kombinasi</t>
+  </si>
+  <si>
+    <t>J03111W</t>
+  </si>
+  <si>
+    <t>31-10-2022</t>
+  </si>
+  <si>
+    <t>Anti Skabies (Permetrin) 5% krim 10 gr</t>
+  </si>
+  <si>
+    <t>EE1143</t>
+  </si>
+  <si>
+    <t>30-09-2023</t>
+  </si>
+  <si>
+    <t>Asam Askorbat tablet   50 mg</t>
+  </si>
+  <si>
+    <t>21305111</t>
+  </si>
+  <si>
+    <t>30-11-2023</t>
+  </si>
+  <si>
+    <t>Asam Traneksamat tablet 500 mg</t>
+  </si>
+  <si>
+    <t>TSE32050</t>
+  </si>
+  <si>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>Asam Askorbat tablet 250 mg</t>
+  </si>
+  <si>
+    <t>D00310B</t>
+  </si>
+  <si>
+    <t>Asetil sisteina 200 mg kapsul</t>
+  </si>
+  <si>
+    <t>21AS1037</t>
+  </si>
+  <si>
+    <t>Asiklovir tablet 400 mg</t>
+  </si>
+  <si>
+    <t>26304002</t>
+  </si>
+  <si>
+    <t>31-01-2023</t>
+  </si>
+  <si>
+    <t>Asiklovir tablet 200 mg</t>
+  </si>
+  <si>
+    <t>Asiklovir krim 5 % @ 5 gram</t>
+  </si>
+  <si>
+    <t>Attapulgite  tablet 600 mg</t>
+  </si>
+  <si>
+    <t>21224602</t>
+  </si>
+  <si>
+    <t>Betahistin Mesilat tablet 6 mg</t>
+  </si>
+  <si>
+    <t>52H0700</t>
+  </si>
+  <si>
+    <t>01-07-2023</t>
+  </si>
+  <si>
+    <t>Bisakodil  suppositoria 5 mg anak-anak</t>
+  </si>
+  <si>
+    <t>19030457</t>
+  </si>
+  <si>
+    <t>31-03-2023</t>
+  </si>
+  <si>
+    <t>Cefadroksil 125 mg / 5 ml sirup kering @ 60ml</t>
+  </si>
+  <si>
+    <t>6008007</t>
+  </si>
+  <si>
+    <t>Cefadroksil 250 mg / 5 ml sirup kering @ 60 ml</t>
+  </si>
+  <si>
+    <t>D509005 BK</t>
+  </si>
+  <si>
+    <t>01-09-2022</t>
+  </si>
+  <si>
+    <t>Cetirizine kapsul 10 mg</t>
+  </si>
+  <si>
+    <t>T08069BK</t>
+  </si>
+  <si>
+    <t>Ciprofloksasin kaplet 500 mg</t>
+  </si>
+  <si>
+    <t>HTCFXC15444</t>
+  </si>
+  <si>
+    <t>30-09-2025</t>
+  </si>
+  <si>
+    <t>Deksametason injeksi 5 mg / ml - 1 ml</t>
+  </si>
+  <si>
+    <t>30-09-2024</t>
+  </si>
+  <si>
+    <t>Deksametason tablet 0,5 mg</t>
+  </si>
+  <si>
+    <t>2111-06-150</t>
+  </si>
+  <si>
+    <t>Diazepam tablet 2 mg</t>
+  </si>
+  <si>
+    <t>01-08-2023</t>
+  </si>
+  <si>
+    <t>Diazepam tablet 5 mg</t>
+  </si>
+  <si>
+    <t>01-02-2024</t>
+  </si>
+  <si>
+    <t>Diazepam injeksi 5 mg / ml - 2 ml</t>
+  </si>
+  <si>
+    <t>F0E590</t>
   </si>
   <si>
     <t>31-05-2023</t>
   </si>
   <si>
-    <t>Ambroksol tablet 30 mg</t>
-  </si>
-  <si>
-    <t>28-02-2023</t>
-  </si>
-  <si>
-    <t>Amoksisilin kaplet 500 mg</t>
-  </si>
-  <si>
-    <t>30-09-2022</t>
-  </si>
-  <si>
-    <t>Antasida DOEN I tablet komb : Al(OH) 200 mg + Mg (OH) 200 mg</t>
-  </si>
-  <si>
-    <t>31-07-2024</t>
-  </si>
-  <si>
-    <t>Attapulgite tablet 600 mg</t>
-  </si>
-  <si>
-    <t>31-10-2024</t>
-  </si>
-  <si>
-    <t>Deksametason injeksi 5 mg / ml - 1 ml</t>
-  </si>
-  <si>
-    <t>30-09-2024</t>
-  </si>
-  <si>
     <t>Difenhidramin HCl injeksi 10 mg / ml - 1 ml</t>
   </si>
   <si>
+    <t>Domperidon Suspensi 5mg/5ml @ 60 ml</t>
+  </si>
+  <si>
+    <t>K29109</t>
+  </si>
+  <si>
+    <t>30-11-2024</t>
+  </si>
+  <si>
+    <t>Domperidon tablet 10 mg</t>
+  </si>
+  <si>
+    <t>JF3011</t>
+  </si>
+  <si>
+    <t>30-06-2024</t>
+  </si>
+  <si>
     <t>Ekstrak Plasenta Gel @ 15 g</t>
   </si>
   <si>
+    <t>10130</t>
+  </si>
+  <si>
     <t>31-10-2023</t>
   </si>
   <si>
-    <t>Garam Oralit untuk 200 ml air</t>
-  </si>
-  <si>
-    <t>31-10-2022</t>
+    <t>Fero Sulfat tablet 300 mg (tablet tambah darah)</t>
+  </si>
+  <si>
+    <t>C.3456130</t>
+  </si>
+  <si>
+    <t>30-06-2023</t>
+  </si>
+  <si>
+    <t>Fitomenadion (Vitamin K1) tablet salut gula 10 mg</t>
+  </si>
+  <si>
+    <t>36381002</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>Furosemid tablet 40 mg</t>
+  </si>
+  <si>
+    <t>Framisetin sulfat gauze dressing 10 cm x 10 cm</t>
+  </si>
+  <si>
+    <t>1AD0538</t>
+  </si>
+  <si>
+    <t>30-04-2023</t>
+  </si>
+  <si>
+    <t>Garam Oralit  untuk 200 ml air</t>
   </si>
   <si>
     <t>Glibenklamid tablet 5 mg</t>
   </si>
   <si>
-    <t>30-09-2023</t>
+    <t>Gliseril Guayakolat tablet 100 mg</t>
+  </si>
+  <si>
+    <t>1810-05-155</t>
+  </si>
+  <si>
+    <t>Hidroklortiazida  tablet 25 mg</t>
+  </si>
+  <si>
+    <t>172008B</t>
+  </si>
+  <si>
+    <t>Hidrokortison krim 2,5 % @ 5g.</t>
+  </si>
+  <si>
+    <t>G91159T</t>
+  </si>
+  <si>
+    <t>Hyoscine-N-Butilbromide tablet 10 mg</t>
+  </si>
+  <si>
+    <t>10927</t>
+  </si>
+  <si>
+    <t>31-07-2025</t>
   </si>
   <si>
     <t>Ibuprofen tablet 200 mg</t>
   </si>
   <si>
-    <t>30-11-2023</t>
-  </si>
-  <si>
-    <t>Kloramfenikol tetes telinga 3 % @ 5 ml</t>
+    <t>Ibuprofen tablet 400 mg</t>
+  </si>
+  <si>
+    <t>2111-21-134</t>
+  </si>
+  <si>
+    <t>30-11-2025</t>
+  </si>
+  <si>
+    <t>Kalium Permanganat serbuk 5 g.</t>
+  </si>
+  <si>
+    <t>T16101</t>
+  </si>
+  <si>
+    <t>Kalsium Laktat tablet 500 mg</t>
+  </si>
+  <si>
+    <t>A01436</t>
+  </si>
+  <si>
+    <t>Kaptopril tablet 12,5 mg</t>
+  </si>
+  <si>
+    <t>B90321B</t>
+  </si>
+  <si>
+    <t>29-02-2024</t>
+  </si>
+  <si>
+    <t>Ketokonazol krim 2 % @ 10 g.</t>
+  </si>
+  <si>
+    <t>2111030</t>
+  </si>
+  <si>
+    <t>Ketokonazol tablet 200 mg</t>
+  </si>
+  <si>
+    <t>HTKCZB15135</t>
+  </si>
+  <si>
+    <t>Kloramfenikol salap mata 1 %  @ 3,5 g.</t>
+  </si>
+  <si>
+    <t>0.0456112</t>
+  </si>
+  <si>
+    <t>Kloramfenikol tetes telinga 3 %  @ 5 ml</t>
+  </si>
+  <si>
+    <t>d.0656125</t>
+  </si>
+  <si>
+    <t>Klorfeniramin Maleat ( CTM ) tablet 4 mg</t>
+  </si>
+  <si>
+    <t>1808-43-152</t>
+  </si>
+  <si>
+    <t>Kotrimoksazol susp. komb. : Sulfametoksazol 200 mg. + Trimetoprim 40 mg/5ml</t>
+  </si>
+  <si>
+    <t>A00205</t>
   </si>
   <si>
     <t>Kotrimoksazol tab dewasa komb : Sulfametoksazol 400 mg+Trimetoprim 80 mg</t>
   </si>
   <si>
-    <t>31-07-2023</t>
+    <t>Krim untuk nyeri @30 gr</t>
+  </si>
+  <si>
+    <t>LCE07850</t>
+  </si>
+  <si>
+    <t>30-04-2024</t>
+  </si>
+  <si>
+    <t>Larutan Infus Ringer Laktat steril @ 500 ml</t>
+  </si>
+  <si>
+    <t>410405</t>
+  </si>
+  <si>
+    <t>31-03-2026</t>
+  </si>
+  <si>
+    <t>Larutan Natrium Klorida Infus 0,9 % steril @ 500 ml.</t>
+  </si>
+  <si>
+    <t>30-04-2025</t>
+  </si>
+  <si>
+    <t>Lanzoprazol Kapsul 30 mg</t>
+  </si>
+  <si>
+    <t>0178073</t>
   </si>
   <si>
     <t>Lidocain injeksi 2 % @ 2 ml</t>
   </si>
   <si>
-    <t>31-07-2025</t>
+    <t>Magnesium Sulfat injeksi (IV) 40 % - 25 ml</t>
+  </si>
+  <si>
+    <t>V72F51A</t>
+  </si>
+  <si>
+    <t>Metformin tablet 500 mg</t>
+  </si>
+  <si>
+    <t>HTMFNB15177</t>
+  </si>
+  <si>
+    <t>Metilprednisolon tablet 4 mg</t>
+  </si>
+  <si>
+    <t>HTMPSD15243</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
   </si>
   <si>
     <t>Metronidazol tablet 500 mg</t>
@@ -148,28 +499,40 @@
     <t>31-08-2023</t>
   </si>
   <si>
+    <t>Mikonazol krim 2 % @ 10 g</t>
+  </si>
+  <si>
+    <t>I12685W</t>
+  </si>
+  <si>
     <t>Multivitamin anak sirup dengan kalsium pidolat 300 mg, fruktooligosakarida 300 mg dan kurkuminoid 2 mg per 5 ml</t>
   </si>
   <si>
-    <t>30-06-2023</t>
+    <t>Multivitamin mineral dengan zat besi tablet dewasa(Pehavral)</t>
+  </si>
+  <si>
+    <t>36185013-i</t>
+  </si>
+  <si>
+    <t>31-07-2022</t>
   </si>
   <si>
     <t>Natrium Diklofenak tab. 25 mg</t>
   </si>
   <si>
-    <t>31-08-2022</t>
-  </si>
-  <si>
-    <t>Larutan Natrium Klorida Infus 0,9 % steril @ 500 ml.</t>
-  </si>
-  <si>
-    <t>30-04-2025</t>
+    <t>Natrium Diklofenak tab. 50 mg</t>
+  </si>
+  <si>
+    <t>46365019</t>
+  </si>
+  <si>
+    <t>01-06-2023</t>
   </si>
   <si>
     <t>Neurotropik Vitamin tablet</t>
   </si>
   <si>
-    <t>30-11-2025</t>
+    <t>2111-03-127</t>
   </si>
   <si>
     <t>Obat Anti Tuberkulosis Kategori I ( FDC )</t>
@@ -181,7 +544,16 @@
     <t>Obat Batuk Hitam ( O B H ) sirup 100 ml.</t>
   </si>
   <si>
-    <t>30-06-2024</t>
+    <t>Omeprazol capsul 20 mg</t>
+  </si>
+  <si>
+    <t>KOPZB10644</t>
+  </si>
+  <si>
+    <t>Ondansetron tablet 8mg</t>
+  </si>
+  <si>
+    <t>22021G0010</t>
   </si>
   <si>
     <t>Parasetamol tablet 500 mg</t>
@@ -190,67 +562,616 @@
     <t>30-11-2026</t>
   </si>
   <si>
+    <t>Piridoksin  tablet 10 mg</t>
+  </si>
+  <si>
+    <t>23610109</t>
+  </si>
+  <si>
+    <t>Piroksikam  tabletl 10 mg</t>
+  </si>
+  <si>
+    <t>Piroksikam  tablet  20 mg</t>
+  </si>
+  <si>
+    <t>Prednison tablet 5 mg</t>
+  </si>
+  <si>
+    <t>01-07-2022</t>
+  </si>
+  <si>
+    <t>Primakuin tablet 15 mg</t>
+  </si>
+  <si>
+    <t>31-03-2024</t>
+  </si>
+  <si>
+    <t>Ranitidine tablet 150 mg</t>
+  </si>
+  <si>
+    <t>GM1047</t>
+  </si>
+  <si>
+    <t>Salbutamol inhalasi 100 mcg/dosis @ 200 dosis</t>
+  </si>
+  <si>
+    <t>ES7K</t>
+  </si>
+  <si>
+    <t>Salbutamol Nebules cairan ih 0.1% @ 2.5ml</t>
+  </si>
+  <si>
+    <t>FV0717</t>
+  </si>
+  <si>
+    <t>Salbutamol tablet 2 mg</t>
+  </si>
+  <si>
+    <t>Salbutamol tablet 4 mg</t>
+  </si>
+  <si>
+    <t>Salisil Bedak 2 % @ 50 g</t>
+  </si>
+  <si>
+    <t>GV02B1</t>
+  </si>
+  <si>
+    <t>01-07-2026</t>
+  </si>
+  <si>
+    <t>Sianokobalamin  tablet 50 mcg</t>
+  </si>
+  <si>
+    <t>Simvastatin tablet 10 mg</t>
+  </si>
+  <si>
+    <t>HTSVND15421</t>
+  </si>
+  <si>
+    <t>01-10-2023</t>
+  </si>
+  <si>
+    <t>Simvastatin 20 mg tablet</t>
+  </si>
+  <si>
+    <t>31-12-2022</t>
+  </si>
+  <si>
+    <t>Tiamin (vit.B1) tablet 100 mg</t>
+  </si>
+  <si>
+    <t>J82087B</t>
+  </si>
+  <si>
     <t>Tripolidin Hcl 1.25mg, Pseudoefedrin Hcl 30mg/5ml @100 ml</t>
   </si>
   <si>
-    <t>30-04-2023</t>
+    <t>Vitamin B-Kompleks tablet</t>
+  </si>
+  <si>
+    <t>2110-42-379</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
   </si>
   <si>
     <t>Zinc sirup 20 mg/5 ml @ 60 ml</t>
   </si>
   <si>
+    <t>E0G362</t>
+  </si>
+  <si>
+    <t>Alat Suntik Sekali Pakai 3 ml</t>
+  </si>
+  <si>
+    <t>06082188</t>
+  </si>
+  <si>
+    <t>31-07-2026</t>
+  </si>
+  <si>
     <t>Alcohol swab</t>
   </si>
   <si>
+    <t>20200318</t>
+  </si>
+  <si>
     <t>31-03-2025</t>
   </si>
   <si>
+    <t>Autoclick lancing device</t>
+  </si>
+  <si>
     <t>Blood lancet</t>
   </si>
   <si>
+    <t>12210502</t>
+  </si>
+  <si>
     <t>31-05-2026</t>
   </si>
   <si>
     <t>Cat Gut Chromic No. 2/0 DS 19 mm</t>
   </si>
   <si>
-    <t>31-01-2023</t>
-  </si>
-  <si>
-    <t>Cat Gut Plain No. 3/0 DS 19 mm</t>
-  </si>
-  <si>
-    <t>Cat Gut Plain No. 2/0 DS 19 mm</t>
+    <t>Handscoon (gloves) ukuran L</t>
+  </si>
+  <si>
+    <t>21-08-69-02-8</t>
+  </si>
+  <si>
+    <t>31-08-2026</t>
+  </si>
+  <si>
+    <t>Handscoon (gloves) ukuran M</t>
+  </si>
+  <si>
+    <t>210871703</t>
+  </si>
+  <si>
+    <t>30-06-2026</t>
   </si>
   <si>
     <t>Handscoon (gloves) ukuran S</t>
   </si>
   <si>
-    <t>31-08-2077</t>
-  </si>
-  <si>
-    <t>Handscoon (gloves) ukuran M</t>
-  </si>
-  <si>
-    <t>31-07-2026</t>
+    <t>210871702</t>
+  </si>
+  <si>
+    <t>Handschoon obgyn steril</t>
+  </si>
+  <si>
+    <t>I.V. Canula Venocath No. 22</t>
+  </si>
+  <si>
+    <t>16598-04</t>
   </si>
   <si>
     <t>I.V. Catheter Nomor 20</t>
   </si>
   <si>
-    <t>30-11-2024</t>
-  </si>
-  <si>
-    <t>Kapas Pembalut / Absorben 250 gram</t>
-  </si>
-  <si>
-    <t>Kasa Hidrofil 40 x 80 cm</t>
-  </si>
-  <si>
-    <t>Rapid test sipilis</t>
-  </si>
-  <si>
-    <t>31-08-2024</t>
+    <t>I.V. Catheter Nomor 24</t>
+  </si>
+  <si>
+    <t>16598-05</t>
+  </si>
+  <si>
+    <t>Infus Set Dewasa</t>
+  </si>
+  <si>
+    <t>16375-01</t>
+  </si>
+  <si>
+    <t>Kasa Hidrofil Steril 18 x 22 cm (isi 12 lbr)</t>
+  </si>
+  <si>
+    <t>30091988</t>
+  </si>
+  <si>
+    <t>Kasa Pembalut Hidrofil 4 m x 10 cm</t>
+  </si>
+  <si>
+    <t>Kasa Pembalut Hidrofil 4 m x 15 cm</t>
+  </si>
+  <si>
+    <t>Kasa Pembalut Hidrofil 4 m x 5 cm</t>
+  </si>
+  <si>
+    <t>Masker N95</t>
+  </si>
+  <si>
+    <t>ME01L-K-20201200</t>
+  </si>
+  <si>
+    <t>27-12-2022</t>
+  </si>
+  <si>
+    <t>Needle Terumo 23 G</t>
+  </si>
+  <si>
+    <t>210710</t>
+  </si>
+  <si>
+    <t>Needle Terumo 24 G</t>
+  </si>
+  <si>
+    <t>210930</t>
+  </si>
+  <si>
+    <t>Needle Terumo 25 G</t>
+  </si>
+  <si>
+    <t>210410</t>
+  </si>
+  <si>
+    <t>Plester 5 cm x 5 m</t>
+  </si>
+  <si>
+    <t>20119</t>
+  </si>
+  <si>
+    <t>Pot Sputum</t>
+  </si>
+  <si>
+    <t>30071888</t>
+  </si>
+  <si>
+    <t>Rapid test for Malaria Pan/Pf (Fokus)</t>
+  </si>
+  <si>
+    <t>75H1421S</t>
+  </si>
+  <si>
+    <t>Stick asam urat</t>
+  </si>
+  <si>
+    <t>U21176090</t>
+  </si>
+  <si>
+    <t>Stick gula darah</t>
+  </si>
+  <si>
+    <t>G21358090</t>
+  </si>
+  <si>
+    <t>Asam Asetil Salisilat ( Asetosal )  tablet 80 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asam Askorbat tablet 250 mg </t>
+  </si>
+  <si>
+    <t>Etanol larutan 70 % @ 100 ml.</t>
+  </si>
+  <si>
+    <t>46809106</t>
+  </si>
+  <si>
+    <t>Etanol larutan 70 % @ 1000 ml.</t>
+  </si>
+  <si>
+    <t>19092088</t>
+  </si>
+  <si>
+    <t>Fenol Gliserol tetes telinga 10 %  @  5 ml.</t>
+  </si>
+  <si>
+    <t>Fitomenadion ( Vitamin K 1 ) injeksi 10 mg / ml - 1 ml</t>
+  </si>
+  <si>
+    <t>26382025-1</t>
+  </si>
+  <si>
+    <t>30-11-2022</t>
+  </si>
+  <si>
+    <t>Flavoksat HCl  tab. 200 mg</t>
+  </si>
+  <si>
+    <t>Haloperidol 5 mg tablet</t>
+  </si>
+  <si>
+    <t>Haloperidol tablet 1,5 mg</t>
+  </si>
+  <si>
+    <t>31-01-2025</t>
+  </si>
+  <si>
+    <t>Ichtyol ( Salap Hitam )</t>
+  </si>
+  <si>
+    <t>Klorheksidin lar 0.2% (larutan kumur antiseptik gigi) @ 60 ml</t>
+  </si>
+  <si>
+    <t>Larutan NaCl  0,225 %+ Dextrose 5 % ( cairan 1 : 4 ) infus @ 500 ml.</t>
+  </si>
+  <si>
+    <t>Metilergometrin Maleat tablet salut 0,125 mg</t>
+  </si>
+  <si>
+    <t>Natrium Heparina gel  @ 20 g</t>
+  </si>
+  <si>
+    <t>Nifedipin tablet 10 mg</t>
+  </si>
+  <si>
+    <t>51G4189</t>
+  </si>
+  <si>
+    <t>Pirantel tablet 125 mg</t>
+  </si>
+  <si>
+    <t>D90851B</t>
+  </si>
+  <si>
+    <t>Povidon Iodida 10 %  30 ml</t>
+  </si>
+  <si>
+    <t>21092088</t>
+  </si>
+  <si>
+    <t>Propanolol tablet 10 mg</t>
+  </si>
+  <si>
+    <t>Tramadol capsul 50 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triheksifenidil Hidroklorida tab 2 mg </t>
+  </si>
+  <si>
+    <t>Zinc tablet dispersible 20 mg</t>
+  </si>
+  <si>
+    <t>Antiseptik tangan tanpa dibilas 500 ml (e-care)</t>
+  </si>
+  <si>
+    <t>19072188</t>
+  </si>
+  <si>
+    <t>Arm sling</t>
+  </si>
+  <si>
+    <t>Bistury / mata pisau bedah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Gut Plain No. 2/0 DS 24 mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Gut Plain No. 3/0 DS 24 mm </t>
+  </si>
+  <si>
+    <t>Cervical collar Medium Density</t>
+  </si>
+  <si>
+    <t>Folley Catheter 2. W 30 cc No.18</t>
+  </si>
+  <si>
+    <t>Handscoon  No.7 steril</t>
+  </si>
+  <si>
+    <t>30-06-2022</t>
+  </si>
+  <si>
+    <t>I.V. Catheter Nomor 18</t>
+  </si>
+  <si>
+    <t>Masker Disposible 3 ply</t>
+  </si>
+  <si>
+    <t>30-06-2025</t>
+  </si>
+  <si>
+    <t>Nasal canula bayi</t>
+  </si>
+  <si>
+    <t>Dect Glass / cover glass</t>
+  </si>
+  <si>
+    <t>Larutan Eosin 2 % 100 ml.</t>
+  </si>
+  <si>
+    <t>Larutan Mersi Oil 100 ml</t>
+  </si>
+  <si>
+    <t>Lidi Vagina</t>
+  </si>
+  <si>
+    <t>Gentamisin salep kulit BPJS</t>
+  </si>
+  <si>
+    <t>30-04-2026</t>
+  </si>
+  <si>
+    <t>Ultrasonic gel family BPJS</t>
+  </si>
+  <si>
+    <t>Klem Tali Pusat (Umbilical cord klem steril nylon)</t>
+  </si>
+  <si>
+    <t>27061988</t>
+  </si>
+  <si>
+    <t>31-05-2024</t>
+  </si>
+  <si>
+    <t>Ketoproven tablet 100 mg BPJS</t>
+  </si>
+  <si>
+    <t>Ambroksol sirup 15 mg/5ml @60 ml-BPJS</t>
+  </si>
+  <si>
+    <t>Asam Askorbat tablet 500 mg</t>
+  </si>
+  <si>
+    <t>A02215</t>
+  </si>
+  <si>
+    <t>Ketoprofen Supp 100 mg</t>
+  </si>
+  <si>
+    <t>goe355</t>
+  </si>
+  <si>
+    <t>azitromicin 500 mg</t>
+  </si>
+  <si>
+    <t>H02093J</t>
+  </si>
+  <si>
+    <t>31-08-2025</t>
+  </si>
+  <si>
+    <t>Larutan infus glukosa 5 % BPJS</t>
+  </si>
+  <si>
+    <t>Kasa kotak BPJS</t>
+  </si>
+  <si>
+    <t>Alat suntik 5 ml BPJS</t>
+  </si>
+  <si>
+    <t>31-01-2026</t>
+  </si>
+  <si>
+    <t>Larutan infus dextrose glukosa 10% BPJS</t>
+  </si>
+  <si>
+    <t>MASKER DISPOSIBLE BPJS</t>
+  </si>
+  <si>
+    <t>TES KEHAMILAN BPJS</t>
+  </si>
+  <si>
+    <t>pirantel pamoat suspensi 125 mg/5 ml</t>
+  </si>
+  <si>
+    <t>NGT.N0 14</t>
+  </si>
+  <si>
+    <t>NGT.NO.16</t>
+  </si>
+  <si>
+    <t>NGT.N0 .18</t>
+  </si>
+  <si>
+    <t>Mineral  mix</t>
+  </si>
+  <si>
+    <t>Larutan Nacl 0.9 % 100 ml</t>
+  </si>
+  <si>
+    <t>50E87B</t>
+  </si>
+  <si>
+    <t>18-05-2023</t>
+  </si>
+  <si>
+    <t>ETAFEN SIRUP/IBUPROVEN SUSPENSI BPJS</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
+  </si>
+  <si>
+    <t>ETIL KLORIDA SEMPROT SPRAY BPJS</t>
+  </si>
+  <si>
+    <t>200652</t>
+  </si>
+  <si>
+    <t>BLOOD LANCET BPJS</t>
+  </si>
+  <si>
+    <t>23072188</t>
+  </si>
+  <si>
+    <t>PLASTIK KLIP OBAT 13X8 BPJS</t>
+  </si>
+  <si>
+    <t>multivitamin bionicom</t>
+  </si>
+  <si>
+    <t>IJ0961</t>
+  </si>
+  <si>
+    <t>rapid test corona virus (PL)</t>
+  </si>
+  <si>
+    <t>41ADG480A</t>
+  </si>
+  <si>
+    <t>18-05-2022</t>
+  </si>
+  <si>
+    <t>DIETIL KARBAMAZINECITRAT 100 MG</t>
+  </si>
+  <si>
+    <t>Cefadroksil kapsul 500 mg BPJS</t>
+  </si>
+  <si>
+    <t>Meloksikam capsul 15 mg BPJS</t>
+  </si>
+  <si>
+    <t>01-02-2025</t>
+  </si>
+  <si>
+    <t>Metilprednisolon tablet 4 mg BPJS</t>
+  </si>
+  <si>
+    <t>01-03-2024</t>
+  </si>
+  <si>
+    <t>Oksitoksin inj BPJS</t>
+  </si>
+  <si>
+    <t>Ranitidine Inj BPJS</t>
+  </si>
+  <si>
+    <t>Neurotropik 5000 Vitamin injeksi BPJS</t>
+  </si>
+  <si>
+    <t>Parasetamol syr BPJS</t>
+  </si>
+  <si>
+    <t>Easytouch stick HB Hemoglobin</t>
+  </si>
+  <si>
+    <t>Easytouch stick Kolesterol</t>
+  </si>
+  <si>
+    <t>Iodium test</t>
+  </si>
+  <si>
+    <t>Regulator Oksigen O2</t>
+  </si>
+  <si>
+    <t>Omeprazole injeksi</t>
+  </si>
+  <si>
+    <t>Needle Terumo 23 G BPJS</t>
+  </si>
+  <si>
+    <t>31-10-2025</t>
+  </si>
+  <si>
+    <t>Ciprofloksacin kaplet 500 mg BPJS</t>
+  </si>
+  <si>
+    <t>HTCFXC13347</t>
+  </si>
+  <si>
+    <t>01-06-2025</t>
+  </si>
+  <si>
+    <t>Asetil Sistein Kapsul 200 mg BPJS</t>
+  </si>
+  <si>
+    <t>Bisakodil tablet 5 mg BPJS</t>
+  </si>
+  <si>
+    <t>EEH234</t>
+  </si>
+  <si>
+    <t>Oseltamivir Phosphate kapsul 75 mg</t>
+  </si>
+  <si>
+    <t>Pot salap sedang BPJS</t>
+  </si>
+  <si>
+    <t>Pot salap kecil BPJS</t>
+  </si>
+  <si>
+    <t>ketokonazole salap cream 10 gr BPJS</t>
+  </si>
+  <si>
+    <t>SIMVASTATIN TABLET 10 mg BPJS</t>
+  </si>
+  <si>
+    <t>KETOKONAZOLE TABLET 200 MG BPJS</t>
+  </si>
+  <si>
+    <t>CLINDAMYCIN KAPSUL 300 MG BPJS</t>
+  </si>
+  <si>
+    <t>LOPERAMID/BIDIUM  BPJS</t>
   </si>
 </sst>
 </file>
@@ -264,7 +1185,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,9 +1202,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +1256,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,14 +1317,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,60 +1335,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,36 +1351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,31 +1361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +1403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +1427,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,25 +1499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,31 +1517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,54 +1535,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -643,17 +1570,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,11 +1607,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,15 +1625,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +1659,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -745,152 +1687,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,8 +1848,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,10 +2176,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="4" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="$A24:$XFD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1248,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44777</v>
+        <v>44740</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1291,7 +2241,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>20001</v>
+        <v>20007</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -1303,7 +2253,7 @@
         <v>2022</v>
       </c>
       <c r="E5" s="4">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -1314,7 +2264,7 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1323,7 +2273,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>20007</v>
+        <v>20019</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -1335,7 +2285,7 @@
         <v>2022</v>
       </c>
       <c r="E6" s="4">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
@@ -1346,8 +2296,8 @@
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4">
-        <v>2312312</v>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>19</v>
@@ -1355,7 +2305,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>20016</v>
+        <v>20072</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -1367,7 +2317,7 @@
         <v>2022</v>
       </c>
       <c r="E7" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -1378,19 +2328,19 @@
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4">
-        <v>213123123</v>
+      <c r="I7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>20019</v>
+        <v>20078</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1399,7 +2349,7 @@
         <v>2022</v>
       </c>
       <c r="E8" s="4">
-        <v>500</v>
+        <v>635</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1410,19 +2360,19 @@
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4">
-        <v>1245</v>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>20045</v>
+        <v>20086</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1431,7 +2381,7 @@
         <v>2022</v>
       </c>
       <c r="E9" s="4">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1442,19 +2392,19 @@
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4">
-        <v>3345345345</v>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>20072</v>
+        <v>20110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -1463,7 +2413,7 @@
         <v>2022</v>
       </c>
       <c r="E10" s="4">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1474,19 +2424,19 @@
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4">
-        <v>234234242</v>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>20078</v>
+        <v>20118</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1495,7 +2445,7 @@
         <v>2022</v>
       </c>
       <c r="E11" s="4">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
@@ -1506,19 +2456,19 @@
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4">
-        <v>123123</v>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>20086</v>
+        <v>20131</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1527,7 +2477,7 @@
         <v>2022</v>
       </c>
       <c r="E12" s="4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
@@ -1538,19 +2488,19 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4">
-        <v>1212435</v>
+      <c r="I12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>20110</v>
+        <v>20170</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -1559,7 +2509,7 @@
         <v>2022</v>
       </c>
       <c r="E13" s="4">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
@@ -1570,19 +2520,19 @@
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4">
-        <v>353421312</v>
+      <c r="I13" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>20118</v>
+        <v>20185</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1591,7 +2541,7 @@
         <v>2022</v>
       </c>
       <c r="E14" s="4">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
@@ -1602,19 +2552,19 @@
       <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="4">
-        <v>3214312435</v>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>20131</v>
+        <v>20212</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1623,7 +2573,7 @@
         <v>2022</v>
       </c>
       <c r="E15" s="4">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -1634,51 +2584,41 @@
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4">
-        <v>123123</v>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4">
-        <v>20160</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2022</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>20170</v>
+        <v>20214</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
@@ -1687,7 +2627,7 @@
         <v>2022</v>
       </c>
       <c r="E17" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>15</v>
@@ -1699,18 +2639,18 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>20185</v>
+        <v>20219</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>14</v>
@@ -1719,7 +2659,7 @@
         <v>2022</v>
       </c>
       <c r="E18" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
@@ -1731,18 +2671,18 @@
         <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>20212</v>
+        <v>20183</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1751,7 +2691,7 @@
         <v>2022</v>
       </c>
       <c r="E19" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>15</v>
@@ -1763,82 +2703,62 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4">
-        <v>20214</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2022</v>
-      </c>
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>20</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4">
-        <v>20219</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2022</v>
-      </c>
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <v>200</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>20183</v>
+        <v>20224</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>14</v>
@@ -1847,7 +2767,7 @@
         <v>2022</v>
       </c>
       <c r="E22" s="4">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>15</v>
@@ -1859,18 +2779,18 @@
         <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>20224</v>
+        <v>20236</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
@@ -1879,7 +2799,7 @@
         <v>2022</v>
       </c>
       <c r="E23" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
@@ -1891,18 +2811,18 @@
         <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
-        <v>20232</v>
+        <v>20254</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>14</v>
@@ -1911,7 +2831,7 @@
         <v>2022</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>15</v>
@@ -1923,18 +2843,18 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>20236</v>
+        <v>20309</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>14</v>
@@ -1943,7 +2863,7 @@
         <v>2022</v>
       </c>
       <c r="E25" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>15</v>
@@ -1955,18 +2875,18 @@
         <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
-        <v>20254</v>
+        <v>20312</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
@@ -1975,7 +2895,7 @@
         <v>2022</v>
       </c>
       <c r="E26" s="4">
-        <v>1500</v>
+        <v>11</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>15</v>
@@ -1986,19 +2906,19 @@
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="4">
-        <v>231231</v>
+      <c r="I26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4">
-        <v>20309</v>
+        <v>21005</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
@@ -2007,7 +2927,7 @@
         <v>2022</v>
       </c>
       <c r="E27" s="4">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>15</v>
@@ -2019,18 +2939,18 @@
         <v>15</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
-        <v>20312</v>
+        <v>21013</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -2039,7 +2959,7 @@
         <v>2022</v>
       </c>
       <c r="E28" s="4">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>15</v>
@@ -2051,18 +2971,18 @@
         <v>15</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4">
-        <v>21005</v>
+        <v>21015</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -2071,7 +2991,7 @@
         <v>2022</v>
       </c>
       <c r="E29" s="4">
-        <v>500</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>15</v>
@@ -2086,15 +3006,15 @@
         <v>15</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4">
-        <v>21013</v>
+        <v>21017</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
@@ -2103,94 +3023,74 @@
         <v>2022</v>
       </c>
       <c r="E30" s="4">
+        <v>81</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
         <v>100</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="4">
-        <v>21015</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E31" s="4">
-        <v>12</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>66</v>
+      <c r="J31" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="4">
-        <v>21018</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2022</v>
-      </c>
+      <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4">
-        <v>12</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>66</v>
+      <c r="J32" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4">
-        <v>21017</v>
+        <v>21030</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
@@ -2199,7 +3099,7 @@
         <v>2022</v>
       </c>
       <c r="E33" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>15</v>
@@ -2211,18 +3111,18 @@
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4">
-        <v>21030</v>
+        <v>21029</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>14</v>
@@ -2231,7 +3131,7 @@
         <v>2022</v>
       </c>
       <c r="E34" s="4">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>15</v>
@@ -2246,15 +3146,15 @@
         <v>15</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4">
-        <v>21029</v>
+        <v>21037</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>14</v>
@@ -2263,7 +3163,7 @@
         <v>2022</v>
       </c>
       <c r="E35" s="4">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>15</v>
@@ -2275,18 +3175,18 @@
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4">
-        <v>21037</v>
+        <v>21043</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>14</v>
@@ -2295,7 +3195,7 @@
         <v>2022</v>
       </c>
       <c r="E36" s="4">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>15</v>
@@ -2307,18 +3207,18 @@
         <v>15</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4">
-        <v>21043</v>
+        <v>21044</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>14</v>
@@ -2327,7 +3227,7 @@
         <v>2022</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>15</v>
@@ -2339,18 +3239,18 @@
         <v>15</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4">
-        <v>21044</v>
+        <v>23039</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>14</v>
@@ -2359,54 +3259,3828 @@
         <v>2022</v>
       </c>
       <c r="E38" s="4">
+        <v>19870</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4">
+        <v>50</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <v>183</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4">
+        <v>310</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>1250</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <v>500</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>20</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <v>140</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <v>490</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4">
+        <v>7</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4">
+        <v>710</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4">
+        <v>288</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4">
+        <v>6</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
+        <v>146</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4">
+        <v>890</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="4">
-        <v>23039</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4">
+        <v>168</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4">
         <v>14</v>
       </c>
-      <c r="D39" s="4">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4">
+        <v>14</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4">
+        <v>72</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4">
+        <v>88</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4">
+        <v>344</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4">
+        <v>265</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4">
+        <v>14</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4">
+        <v>383</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>305</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4">
+        <v>20</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4">
+        <v>947</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4">
+        <v>42</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4">
+        <v>444</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4">
+        <v>55</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4">
+        <v>848</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4">
+        <v>160</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4">
+        <v>250</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4">
+        <v>390</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>78</v>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4">
+        <v>100</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4">
+        <v>271</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4">
+        <v>320</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4">
+        <v>2</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4">
+        <v>20</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4">
+        <v>70</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4">
+        <v>273</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4">
+        <v>42</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4">
+        <v>24</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4">
+        <v>460</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4">
+        <v>320</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4">
+        <v>300</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4">
+        <v>40</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4">
+        <v>100</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4">
+        <v>9</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4">
+        <v>60</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4">
+        <v>200</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4">
+        <v>100</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4">
+        <v>12</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4">
+        <v>200</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4">
+        <v>100</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4">
+        <v>100</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4">
+        <v>36</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4">
+        <v>45</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4">
+        <v>31</v>
+      </c>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4">
+        <v>4</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4">
+        <v>6</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4">
+        <v>5</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4">
+        <v>10</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4">
+        <v>160</v>
+      </c>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4">
+        <v>80</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4">
+        <v>170</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4">
+        <v>60</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4">
+        <v>10</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4">
+        <v>25</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4">
+        <v>25</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4">
+        <v>120</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4">
+        <v>12</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4">
+        <v>7</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4">
+        <v>5</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4">
+        <v>26</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4">
+        <v>30</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4">
+        <v>100</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4">
+        <v>100</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4">
+        <v>2</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4">
+        <v>5</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4">
+        <v>13</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4">
+        <v>200</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4">
+        <v>2</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4">
+        <v>80</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4">
+        <v>102</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4">
+        <v>4</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4">
+        <v>100</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4">
+        <v>59</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4">
+        <v>100</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4">
+        <v>250</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4">
+        <v>8</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4">
+        <v>3</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4">
+        <v>33</v>
+      </c>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4">
+        <v>12</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4">
+        <v>13</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4">
+        <v>5</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4">
+        <v>16</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4">
+        <v>2</v>
+      </c>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4">
+        <v>250</v>
+      </c>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4">
+        <v>3</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4">
+        <v>100</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4">
+        <v>3</v>
+      </c>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4">
+        <v>100</v>
+      </c>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4">
+        <v>20</v>
+      </c>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4">
+        <v>3</v>
+      </c>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4">
+        <v>60</v>
+      </c>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4">
+        <v>10</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4">
+        <v>2255</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4">
+        <v>100</v>
+      </c>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4">
+        <v>390</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4">
+        <v>2</v>
+      </c>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4">
+        <v>10</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4">
+        <v>2</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4">
+        <v>49</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4">
+        <v>8</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4">
+        <v>2</v>
+      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4">
+        <v>2</v>
+      </c>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4">
+        <v>2</v>
+      </c>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4">
+        <v>40</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4">
+        <v>103</v>
+      </c>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4">
+        <v>5</v>
+      </c>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4">
+        <v>2</v>
+      </c>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4">
+        <v>100</v>
+      </c>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4">
+        <v>40</v>
+      </c>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4">
+        <v>1900</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4">
+        <v>50</v>
+      </c>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4">
+        <v>12000</v>
+      </c>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4">
+        <v>100</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4">
+        <v>200</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4">
+        <v>200</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4">
+        <v>2</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4">
+        <v>5</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4">
+        <v>4</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4">
+        <v>10</v>
+      </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4">
+        <v>1</v>
+      </c>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4">
+        <v>3</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4">
+        <v>5</v>
+      </c>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4">
+        <v>2</v>
+      </c>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4">
+        <v>10</v>
+      </c>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4">
+        <v>20</v>
+      </c>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4">
+        <v>70</v>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4">
+        <v>66</v>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4">
+        <v>21</v>
+      </c>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4">
+        <v>5</v>
+      </c>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4">
+        <v>10</v>
+      </c>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4">
+        <v>17</v>
+      </c>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4">
+        <v>1</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4">
+        <v>130</v>
+      </c>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4">
+        <v>150</v>
+      </c>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4">
+        <v>20</v>
+      </c>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4">
+        <v>2</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
